--- a/data/trans_camb/P57_AF_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>17.34693296720512</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-7.740508011893887</v>
+        <v>-7.740508011893893</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.654438967218387</v>
@@ -664,7 +664,7 @@
         <v>12.45487876707958</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-7.862983257321249</v>
+        <v>-7.862983257321243</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.012323290996553</v>
+        <v>-7.39790449626911</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.092577983838876</v>
+        <v>2.368166345328867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.11309944209477</v>
+        <v>-13.68876205650922</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.5454685878913332</v>
+        <v>-0.158605123398583</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>9.753158647557646</v>
+        <v>9.554047322687218</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-14.91615198524319</v>
+        <v>-14.98754262509472</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.614191898135487</v>
+        <v>-2.098034084643429</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.646841811955246</v>
+        <v>6.921134048838821</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-12.46207453542238</v>
+        <v>-12.62195139004887</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.087967115602043</v>
+        <v>6.180069940953187</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.48018701785244</v>
+        <v>15.3077896773496</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.5596196472039406</v>
+        <v>-0.891758332068195</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.77190751404726</v>
+        <v>15.34223042086075</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>24.56159600715074</v>
+        <v>24.46882762890268</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.8959799183259561</v>
+        <v>-0.6911600714390658</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.189027568816606</v>
+        <v>8.732481860257623</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.41445727967031</v>
+        <v>16.97881489162008</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-2.869431312414995</v>
+        <v>-3.566539781818444</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.324176237186272</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1446531652569267</v>
+        <v>-0.1446531652569268</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.04663283080582708</v>
@@ -769,7 +769,7 @@
         <v>0.2188056540101741</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1381358442955475</v>
+        <v>-0.1381358442955474</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1255773233631776</v>
+        <v>-0.1193146842546811</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.0326631933634563</v>
+        <v>0.03710331229009381</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2128110218607187</v>
+        <v>-0.2213731715643743</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.009014535997933757</v>
+        <v>-0.001945250047006393</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1688422924476422</v>
+        <v>0.1674211007310074</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.254652482138625</v>
+        <v>-0.2604653492511939</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04387019986322258</v>
+        <v>-0.03549391944572412</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1286914860286558</v>
+        <v>0.1162822612247905</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2114518809073386</v>
+        <v>-0.2123325137356239</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.10907793121979</v>
+        <v>0.1127188839007149</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2789854808345807</v>
+        <v>0.2731673763718142</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.01101161285272424</v>
+        <v>-0.02004218805402143</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3167582801309045</v>
+        <v>0.3103987398728494</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5010981488645944</v>
+        <v>0.4950701422071442</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.01768639289353238</v>
+        <v>-0.0138550479104941</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1495948910727288</v>
+        <v>0.1628825755018212</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3235043582626518</v>
+        <v>0.312323207765616</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.05286650944989276</v>
+        <v>-0.06600729281059443</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>13.56336305877709</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.3699357976596263</v>
+        <v>0.3699357976596374</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8471243460179878</v>
+        <v>-0.9680072411455548</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.958204623664257</v>
+        <v>8.599209641542835</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.465932294088048</v>
+        <v>-3.501887521264393</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.09937068088512938</v>
+        <v>-0.5235269269653815</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.921470382721755</v>
+        <v>4.211295678105683</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.637663713288124</v>
+        <v>-10.15132820639605</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.792544220706072</v>
+        <v>1.264898305203824</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.385811015381673</v>
+        <v>8.502525601133502</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.477486129841384</v>
+        <v>-4.274881167039299</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.69733396209075</v>
+        <v>14.34285457196185</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>23.54084364306758</v>
+        <v>23.6758477800108</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.59384047506584</v>
+        <v>10.89994963095662</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.84684581286419</v>
+        <v>15.01731576491145</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.76237661506853</v>
+        <v>18.26448661038068</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.241250432349738</v>
+        <v>3.333241419276926</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.28001309704311</v>
+        <v>11.48371925773746</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.3613307197253</v>
+        <v>18.42423310977822</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.558661726710113</v>
+        <v>5.679746020501064</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.2401259806804168</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.006549348846363422</v>
+        <v>0.006549348846363619</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01488537641628314</v>
+        <v>-0.01735661580821722</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1558685270757327</v>
+        <v>0.1499148712032077</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05862769577739051</v>
+        <v>-0.06140095605657285</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0007209973068336317</v>
+        <v>-0.009481526366901865</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06117273682164489</v>
+        <v>0.06746838145678857</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1534362181735246</v>
+        <v>-0.1617324347783349</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03002589378769108</v>
+        <v>0.02166357569419943</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1395739907227156</v>
+        <v>0.1418960354648545</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.07709200289896725</v>
+        <v>-0.07331852504447618</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2955969971834063</v>
+        <v>0.2978359676882053</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4841225118969744</v>
+        <v>0.4770821139069243</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2396088460969602</v>
+        <v>0.2144082022582504</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2554745399343124</v>
+        <v>0.2685507482674253</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3359703814903935</v>
+        <v>0.33618678437357</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05939077201267703</v>
+        <v>0.0607323856872065</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2285068219155466</v>
+        <v>0.2123631547351423</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3416854191358385</v>
+        <v>0.3445788240192008</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.102385396211259</v>
+        <v>0.1042115158536686</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>10.95949030418863</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-7.802808776719228</v>
+        <v>-7.802808776719217</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.5971139563789252</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.678795677073678</v>
+        <v>-10.0328875540514</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.200442429298014</v>
+        <v>5.336574445451695</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.19260858215461</v>
+        <v>-14.20914045104298</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.589326512459614</v>
+        <v>-8.834094834562645</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.274296178673047</v>
+        <v>3.873886951702788</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-16.94466295115511</v>
+        <v>-17.63691015710276</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.051759853286481</v>
+        <v>-7.160303639497415</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>6.597782108534929</v>
+        <v>6.665050459131749</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-12.70746728500306</v>
+        <v>-13.20045179628596</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.491780263829171</v>
+        <v>1.7159837387794</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.50579367324914</v>
+        <v>16.72636585380541</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.591820714086449</v>
+        <v>-0.9026922789411396</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.46811871340729</v>
+        <v>9.841400448476758</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>22.99375987101409</v>
+        <v>23.57469530877722</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.170529532415276</v>
+        <v>2.059496596770349</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.811728593233378</v>
+        <v>2.198772135981283</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>16.33282724988822</v>
+        <v>16.46559101133018</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.926251905975815</v>
+        <v>-2.77280711793698</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1675942252270766</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1193217618003181</v>
+        <v>-0.1193217618003179</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.009279265531222301</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1421000707742327</v>
+        <v>-0.1469421418546359</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.07368983858474168</v>
+        <v>0.07952401212147137</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2078014195646424</v>
+        <v>-0.2073966785865473</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1236294308156483</v>
+        <v>-0.1281071976119674</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04667719418206333</v>
+        <v>0.05601699562512891</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2418288942892664</v>
+        <v>-0.2534266196169508</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1042077973810308</v>
+        <v>-0.1055891067907862</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.09780703187795908</v>
+        <v>0.09954826599102977</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1899681424632075</v>
+        <v>-0.1960732124697374</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.02431952519093807</v>
+        <v>0.02796698239065966</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2649385523071449</v>
+        <v>0.2684722673679682</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.02481394370690222</v>
+        <v>-0.01085908691327254</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1819682241964884</v>
+        <v>0.1732864921973776</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3927414577824966</v>
+        <v>0.4055544049125416</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05545299487230667</v>
+        <v>0.03365900265228938</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04574516554662959</v>
+        <v>0.03559633709880931</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2646418941769164</v>
+        <v>0.2649333462005301</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.03145373602167076</v>
+        <v>-0.04450947622694721</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>11.30084094982186</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-4.664895352441034</v>
+        <v>-4.664895352441023</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.363870384454883</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.680501144711194</v>
+        <v>-3.715967909929393</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.196129213848403</v>
+        <v>7.490592783641456</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.817450103292902</v>
+        <v>-9.073797594757165</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4945668585692179</v>
+        <v>-0.09376440869789932</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.987358968817715</v>
+        <v>5.047759178255962</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-12.06530644472175</v>
+        <v>-11.96310392284592</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.7060028819788755</v>
+        <v>-0.7520872227242889</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>7.859666765710433</v>
+        <v>7.730162055719831</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-8.670010657493989</v>
+        <v>-8.673554924131627</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.309261378225031</v>
+        <v>4.334649227107795</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.60215510531759</v>
+        <v>15.0784507528151</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.09070109064404032</v>
+        <v>-0.2401955149026295</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.21683154763122</v>
+        <v>10.09368745155846</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.3161885898575</v>
+        <v>14.61347029805887</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.96285022465236</v>
+        <v>-2.58854977437242</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.578418805222467</v>
+        <v>5.485575604392653</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.73572649154752</v>
+        <v>13.41320816585225</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-2.512501623652041</v>
+        <v>-2.757513159568742</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1768536008173724</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.07300372991519957</v>
+        <v>-0.07300372991519941</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.08226812576657232</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05658522387667915</v>
+        <v>-0.05657887968751892</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1071390921282521</v>
+        <v>0.1163321051074545</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1357252146365156</v>
+        <v>-0.1362528690975572</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.007158010637859102</v>
+        <v>-0.002837444685265658</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0728722002584946</v>
+        <v>0.07439908648472621</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1762988768679561</v>
+        <v>-0.1764009441487562</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01082110676713459</v>
+        <v>-0.01155936600510534</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1181866129724853</v>
+        <v>0.1175107733530541</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1344857624949512</v>
+        <v>-0.133626119732037</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0700135152067957</v>
+        <v>0.07054908162563091</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2338485608579975</v>
+        <v>0.243651657714352</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.00149293294176725</v>
+        <v>-0.00354047525094379</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1636149405133683</v>
+        <v>0.1606694045328709</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2275217974439987</v>
+        <v>0.2350586941388904</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.04655551599216595</v>
+        <v>-0.04148363167142829</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08860137660878066</v>
+        <v>0.08783127225714281</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2190941446639358</v>
+        <v>0.2133023521662084</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.04145134333854117</v>
+        <v>-0.04382164849191141</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>14.48292231576636</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.1679801197752573</v>
+        <v>0.1679801197752462</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.098623884817301</v>
+        <v>-2.704678629277453</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>9.191318511236544</v>
+        <v>8.21002447085981</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.864080171521755</v>
+        <v>-5.09053285943602</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.414845543632955</v>
+        <v>-1.286794470439475</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>9.924063504960552</v>
+        <v>9.611777274271338</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.301004211856809</v>
+        <v>-5.831284802784417</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1354018742243692</v>
+        <v>-0.008442735283065958</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>10.63349016261193</v>
+        <v>10.76401910448664</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.945705150855781</v>
+        <v>-3.848174648947412</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.68071020486996</v>
+        <v>11.45829508941205</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.06532199297705</v>
+        <v>21.4042907682374</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.821002076668318</v>
+        <v>8.849475084770967</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.204363377931013</v>
+        <v>9.139800712079118</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>19.5666948176318</v>
+        <v>19.8746987468454</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.375184686355587</v>
+        <v>4.201483441637592</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.305747412216972</v>
+        <v>8.051910383881442</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>18.31477480719596</v>
+        <v>18.43292075086401</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.074238773544217</v>
+        <v>4.066569333804811</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.2224198402483961</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.002579735677008096</v>
+        <v>0.002579735677007925</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.03343753125669355</v>
+        <v>-0.03890116928512299</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1370978533334906</v>
+        <v>0.1208742899599782</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.08739705712297749</v>
+        <v>-0.0774388157826718</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.02046111319119031</v>
+        <v>-0.01664856896299216</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1391346206162853</v>
+        <v>0.1415969846844724</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.07643184619986521</v>
+        <v>-0.08400679507590941</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.001921299738062034</v>
+        <v>-0.0005130890979464032</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1555241005389259</v>
+        <v>0.1575954822140855</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.05864857882448798</v>
+        <v>-0.05776861119697934</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1982426665572299</v>
+        <v>0.1969409215691751</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3620807193133209</v>
+        <v>0.3643550320963643</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1467107794853117</v>
+        <v>0.1503774447575509</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1441546887194479</v>
+        <v>0.1448239398131711</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3073775516515569</v>
+        <v>0.318867205064024</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0687425033654173</v>
+        <v>0.06587123204176158</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1343666759733974</v>
+        <v>0.1283693271964758</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2935161401415091</v>
+        <v>0.2925050612820662</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.06546876848725849</v>
+        <v>0.06511477723940232</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>22.23099444429425</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-8.826476617019747</v>
+        <v>-8.82647661701974</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>5.222933761375625</v>
@@ -1725,7 +1725,7 @@
         <v>18.2595858458127</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.287654243669811</v>
+        <v>1.287654243669822</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.989704341916656</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.580814316034878</v>
+        <v>-4.150003924834967</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>13.600371898212</v>
+        <v>14.35696561443463</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-20.03625070645778</v>
+        <v>-19.89615282661688</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.9603919864966544</v>
+        <v>0.775076143861092</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>14.47593196434108</v>
+        <v>14.26587436027378</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.492604601377038</v>
+        <v>-3.315314266771698</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.400457390129427</v>
+        <v>1.180353300170308</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>15.34388516328102</v>
+        <v>15.54832998690518</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-5.30797202223539</v>
+        <v>-5.321767393349021</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>12.91031406032302</v>
+        <v>12.33814689959399</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>30.22035844311561</v>
+        <v>29.97639902459646</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.966386252461215</v>
+        <v>2.653318064659358</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.059614160537265</v>
+        <v>8.928696114400388</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>21.94293113654988</v>
+        <v>21.87465018756962</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.197778620891357</v>
+        <v>5.562045499290371</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.759295019939954</v>
+        <v>8.575236443171825</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>22.33698413106896</v>
+        <v>21.99336265135021</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.136952662287932</v>
+        <v>3.155449230027379</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.4655141711565656</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.1848252878160977</v>
+        <v>-0.1848252878160976</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.08911169535692014</v>
@@ -1830,7 +1830,7 @@
         <v>0.311538059944117</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02196946351024139</v>
+        <v>0.02196946351024158</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.08827693383755326</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.08851695472388275</v>
+        <v>-0.08076844146172478</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2597053617769647</v>
+        <v>0.2728884937942977</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3957666373639163</v>
+        <v>-0.4061836527595525</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.01643262100695194</v>
+        <v>0.01228165603939961</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.2381744356292743</v>
+        <v>0.2356236153865955</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.05747470834883183</v>
+        <v>-0.05426839858031226</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02377075120051066</v>
+        <v>0.0202703487529328</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.2616072882444679</v>
+        <v>0.2668247881828693</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.09274476645136044</v>
+        <v>-0.09313569550673201</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2898073241376309</v>
+        <v>0.2792633962941319</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6872778111015874</v>
+        <v>0.6874358669677858</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.07271327832557141</v>
+        <v>0.05964302015653827</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1601559166472587</v>
+        <v>0.1566285525100479</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3871235631178674</v>
+        <v>0.3925172984874215</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.09185309084491712</v>
+        <v>0.09885944662121766</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1592620947518784</v>
+        <v>0.1564985159047739</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4076553281962367</v>
+        <v>0.4014902186066719</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.05707134731230659</v>
+        <v>0.05669105497789136</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>14.02395492805718</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-3.317935823866502</v>
+        <v>-3.317935823866514</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.062973232196065</v>
+        <v>-1.120909676250612</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>10.90128597887226</v>
+        <v>10.80695664994115</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-6.253103839444768</v>
+        <v>-6.189514336085716</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.266923830724101</v>
+        <v>3.065976065121879</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>12.62384060734966</v>
+        <v>12.52968872541763</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.964342681300012</v>
+        <v>-5.361116490675673</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.650391575002368</v>
+        <v>1.781615832057496</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>12.3710167982392</v>
+        <v>12.41423443114749</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-5.092385264524462</v>
+        <v>-4.92355481079125</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.899543006436261</v>
+        <v>3.720777141159414</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>15.69831999533094</v>
+        <v>15.46648832245948</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.926708531893245</v>
+        <v>-1.30016479337179</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.781369864249112</v>
+        <v>7.97642571687161</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>17.02297408567192</v>
+        <v>16.87172514326367</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.6278890210146979</v>
+        <v>-0.7857761238526952</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.987361097615763</v>
+        <v>5.219989701423582</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>15.62883259304667</v>
+        <v>15.55309642655036</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-1.69447425294346</v>
+        <v>-1.667898415807225</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.2299699377812664</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.05440872413603234</v>
+        <v>-0.05440872413603252</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.01673991083147522</v>
+        <v>-0.01811859270888296</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1741765564286714</v>
+        <v>0.174596946368787</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1005812279369646</v>
+        <v>-0.1003549082187671</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.05271934210242991</v>
+        <v>0.04886810287456288</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2011081685737136</v>
+        <v>0.20087880946894</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.08052339351438259</v>
+        <v>-0.08567629979857681</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02696002286873871</v>
+        <v>0.02837490246169744</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2002918298557385</v>
+        <v>0.2005781199802465</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.08225683333559236</v>
+        <v>-0.0797130538695144</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.06571976067267585</v>
+        <v>0.06210088068191277</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2631726243491084</v>
+        <v>0.2597883666561606</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.01502626905544192</v>
+        <v>-0.02172771736757531</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1298855486538716</v>
+        <v>0.1335372713644834</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.28501412859667</v>
+        <v>0.2818802075144833</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.01159023393208017</v>
+        <v>-0.01197736101474788</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.08337125060675714</v>
+        <v>0.08712064592138845</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2598644873924414</v>
+        <v>0.2588234635716402</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.02847231260605988</v>
+        <v>-0.02746930782908215</v>
       </c>
     </row>
     <row r="46">
